--- a/codesystems/dhb.xlsx
+++ b/codesystems/dhb.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidhay/IG/registry/codesystems/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidhay/IG/NHI/codesystems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46852686-095D-CF47-8175-9C9949CFCE1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048A3AEC-EBB5-5D46-9353-5E1BE331721D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="31200" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
-    <t>http://standards.digital.health.nz/fhir/CodeSystem/dhb</t>
-  </si>
-  <si>
-    <t>http://standards.digital.health.nz/fhir/ValueSet/dhb</t>
-  </si>
-  <si>
     <t>New Zealand DHBs</t>
   </si>
   <si>
@@ -151,7 +145,13 @@
     <t>wcdhb</t>
   </si>
   <si>
-    <t>dhb</t>
+    <t>https://standards.digital.health.nz/fhir/cs/dhb</t>
+  </si>
+  <si>
+    <t>https://standards.digital.health.nz/fhir/ValueSet/dhb</t>
+  </si>
+  <si>
+    <t>DHB</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -513,12 +513,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -528,167 +528,167 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/codesystems/dhb.xlsx
+++ b/codesystems/dhb.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidhay/IG/NHI/codesystems/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidhay/IG/registry/codesystems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048A3AEC-EBB5-5D46-9353-5E1BE331721D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46852686-095D-CF47-8175-9C9949CFCE1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="31200" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
+    <t>http://standards.digital.health.nz/fhir/CodeSystem/dhb</t>
+  </si>
+  <si>
+    <t>http://standards.digital.health.nz/fhir/ValueSet/dhb</t>
+  </si>
+  <si>
     <t>New Zealand DHBs</t>
   </si>
   <si>
@@ -145,13 +151,7 @@
     <t>wcdhb</t>
   </si>
   <si>
-    <t>https://standards.digital.health.nz/fhir/cs/dhb</t>
-  </si>
-  <si>
-    <t>https://standards.digital.health.nz/fhir/ValueSet/dhb</t>
-  </si>
-  <si>
-    <t>DHB</t>
+    <t>dhb</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -513,12 +513,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -528,167 +528,167 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
